--- a/natmiOut/OldD4/LR-pairs_lrc2p/Ccl5-Ccr3.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Ccl5-Ccr3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>Edge total expression derived specificity</t>
+  </si>
+  <si>
+    <t>ECs</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>22</v>
@@ -534,235 +537,607 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>6.87530488488643</v>
+        <v>0.9331043333333334</v>
       </c>
       <c r="H2">
-        <v>6.87530488488643</v>
+        <v>2.799313</v>
       </c>
       <c r="I2">
-        <v>0.3314424897862902</v>
+        <v>0.0200380644147157</v>
       </c>
       <c r="J2">
-        <v>0.3314424897862902</v>
+        <v>0.0201696361339749</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.292531888977493</v>
+        <v>0.1323866666666667</v>
       </c>
       <c r="N2">
-        <v>0.292531888977493</v>
+        <v>0.39716</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.2977240407890032</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.2977240407890032</v>
       </c>
       <c r="Q2">
-        <v>2.011245925272013</v>
+        <v>0.1235305723422222</v>
       </c>
       <c r="R2">
-        <v>2.011245925272013</v>
+        <v>1.11177515108</v>
       </c>
       <c r="S2">
-        <v>0.3314424897862902</v>
+        <v>0.00596581350713949</v>
       </c>
       <c r="T2">
-        <v>0.3314424897862902</v>
+        <v>0.006004985571050896</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>8.846178422799589</v>
+        <v>0.9331043333333334</v>
       </c>
       <c r="H3">
-        <v>8.846178422799589</v>
+        <v>2.799313</v>
       </c>
       <c r="I3">
-        <v>0.4264537283272617</v>
+        <v>0.0200380644147157</v>
       </c>
       <c r="J3">
-        <v>0.4264537283272617</v>
+        <v>0.0201696361339749</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.292531888977493</v>
+        <v>0.3122756666666667</v>
       </c>
       <c r="N3">
-        <v>0.292531888977493</v>
+        <v>0.936827</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.7022759592109968</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.7022759592109967</v>
       </c>
       <c r="Q3">
-        <v>2.587789284253503</v>
+        <v>0.2913857777612223</v>
       </c>
       <c r="R3">
-        <v>2.587789284253503</v>
+        <v>2.622471999851</v>
       </c>
       <c r="S3">
-        <v>0.4264537283272617</v>
+        <v>0.01407225090757621</v>
       </c>
       <c r="T3">
-        <v>0.4264537283272617</v>
+        <v>0.014164650562924</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.17172141548251</v>
+        <v>7.466229000000001</v>
       </c>
       <c r="H4">
-        <v>4.17172141548251</v>
+        <v>22.398687</v>
       </c>
       <c r="I4">
-        <v>0.2011090061884797</v>
+        <v>0.1603344581013467</v>
       </c>
       <c r="J4">
-        <v>0.2011090061884797</v>
+        <v>0.1613872284624099</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.292531888977493</v>
+        <v>0.1323866666666667</v>
       </c>
       <c r="N4">
-        <v>0.292531888977493</v>
+        <v>0.39716</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.2977240407890032</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.2977240407890032</v>
       </c>
       <c r="Q4">
-        <v>1.22036154595896</v>
+        <v>0.9884291698800001</v>
       </c>
       <c r="R4">
-        <v>1.22036154595896</v>
+        <v>8.89586252892</v>
       </c>
       <c r="S4">
-        <v>0.2011090061884797</v>
+        <v>0.04773542274364807</v>
       </c>
       <c r="T4">
-        <v>0.2011090061884797</v>
+        <v>0.04804885778956668</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="B5" t="s">
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>7.466229000000001</v>
+      </c>
+      <c r="H5">
+        <v>22.398687</v>
+      </c>
+      <c r="I5">
+        <v>0.1603344581013467</v>
+      </c>
+      <c r="J5">
+        <v>0.1613872284624099</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>0.3122756666666667</v>
+      </c>
+      <c r="N5">
+        <v>0.936827</v>
+      </c>
+      <c r="O5">
+        <v>0.7022759592109968</v>
+      </c>
+      <c r="P5">
+        <v>0.7022759592109967</v>
+      </c>
+      <c r="Q5">
+        <v>2.331521638461</v>
+      </c>
+      <c r="R5">
+        <v>20.983694746149</v>
+      </c>
+      <c r="S5">
+        <v>0.1125990353576986</v>
+      </c>
+      <c r="T5">
+        <v>0.1133383706728432</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>29.07980133333333</v>
+      </c>
+      <c r="H6">
+        <v>87.23940399999999</v>
+      </c>
+      <c r="I6">
+        <v>0.6244777903912161</v>
+      </c>
+      <c r="J6">
+        <v>0.6285781672949164</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M6">
+        <v>0.1323866666666667</v>
+      </c>
+      <c r="N6">
+        <v>0.39716</v>
+      </c>
+      <c r="O6">
+        <v>0.2977240407890032</v>
+      </c>
+      <c r="P6">
+        <v>0.2977240407890032</v>
+      </c>
+      <c r="Q6">
+        <v>3.849777965848888</v>
+      </c>
+      <c r="R6">
+        <v>34.64800169263999</v>
+      </c>
+      <c r="S6">
+        <v>0.185922051138261</v>
+      </c>
+      <c r="T6">
+        <v>0.1871428319187886</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>29.07980133333333</v>
+      </c>
+      <c r="H7">
+        <v>87.23940399999999</v>
+      </c>
+      <c r="I7">
+        <v>0.6244777903912161</v>
+      </c>
+      <c r="J7">
+        <v>0.6285781672949164</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.3122756666666667</v>
+      </c>
+      <c r="N7">
+        <v>0.936827</v>
+      </c>
+      <c r="O7">
+        <v>0.7022759592109968</v>
+      </c>
+      <c r="P7">
+        <v>0.7022759592109967</v>
+      </c>
+      <c r="Q7">
+        <v>9.080914347900888</v>
+      </c>
+      <c r="R7">
+        <v>81.72822913110799</v>
+      </c>
+      <c r="S7">
+        <v>0.4385557392529551</v>
+      </c>
+      <c r="T7">
+        <v>0.4414353353761278</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>8.176158000000001</v>
+      </c>
+      <c r="H8">
+        <v>24.528474</v>
+      </c>
+      <c r="I8">
+        <v>0.1755799162175431</v>
+      </c>
+      <c r="J8">
+        <v>0.1767327896171896</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>0.1323866666666667</v>
+      </c>
+      <c r="N8">
+        <v>0.39716</v>
+      </c>
+      <c r="O8">
+        <v>0.2977240407890032</v>
+      </c>
+      <c r="P8">
+        <v>0.2977240407890032</v>
+      </c>
+      <c r="Q8">
+        <v>1.08241430376</v>
+      </c>
+      <c r="R8">
+        <v>9.74172873384</v>
+      </c>
+      <c r="S8">
+        <v>0.05227436213768156</v>
+      </c>
+      <c r="T8">
+        <v>0.05261760026474247</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>8.176158000000001</v>
+      </c>
+      <c r="H9">
+        <v>24.528474</v>
+      </c>
+      <c r="I9">
+        <v>0.1755799162175431</v>
+      </c>
+      <c r="J9">
+        <v>0.1767327896171896</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.3122756666666667</v>
+      </c>
+      <c r="N9">
+        <v>0.936827</v>
+      </c>
+      <c r="O9">
+        <v>0.7022759592109968</v>
+      </c>
+      <c r="P9">
+        <v>0.7022759592109967</v>
+      </c>
+      <c r="Q9">
+        <v>2.553215190222</v>
+      </c>
+      <c r="R9">
+        <v>22.978936711998</v>
+      </c>
+      <c r="S9">
+        <v>0.1233055540798615</v>
+      </c>
+      <c r="T9">
+        <v>0.1241151893524471</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B10" t="s">
         <v>25</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>0.85037854317592</v>
-      </c>
-      <c r="H5">
-        <v>0.85037854317592</v>
-      </c>
-      <c r="I5">
-        <v>0.04099477569796833</v>
-      </c>
-      <c r="J5">
-        <v>0.04099477569796833</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>0.292531888977493</v>
-      </c>
-      <c r="N5">
-        <v>0.292531888977493</v>
-      </c>
-      <c r="O5">
-        <v>1</v>
-      </c>
-      <c r="P5">
-        <v>1</v>
-      </c>
-      <c r="Q5">
-        <v>0.2487628415811804</v>
-      </c>
-      <c r="R5">
-        <v>0.2487628415811804</v>
-      </c>
-      <c r="S5">
-        <v>0.04099477569796833</v>
-      </c>
-      <c r="T5">
-        <v>0.04099477569796833</v>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.9112975</v>
+      </c>
+      <c r="H10">
+        <v>1.822595</v>
+      </c>
+      <c r="I10">
+        <v>0.01956977087517835</v>
+      </c>
+      <c r="J10">
+        <v>0.01313217849150916</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.1323866666666667</v>
+      </c>
+      <c r="N10">
+        <v>0.39716</v>
+      </c>
+      <c r="O10">
+        <v>0.2977240407890032</v>
+      </c>
+      <c r="P10">
+        <v>0.2977240407890032</v>
+      </c>
+      <c r="Q10">
+        <v>0.1206436383666667</v>
+      </c>
+      <c r="R10">
+        <v>0.7238618301999999</v>
+      </c>
+      <c r="S10">
+        <v>0.005826391262273046</v>
+      </c>
+      <c r="T10">
+        <v>0.003909765244854544</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.9112975</v>
+      </c>
+      <c r="H11">
+        <v>1.822595</v>
+      </c>
+      <c r="I11">
+        <v>0.01956977087517835</v>
+      </c>
+      <c r="J11">
+        <v>0.01313217849150916</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.3122756666666667</v>
+      </c>
+      <c r="N11">
+        <v>0.936827</v>
+      </c>
+      <c r="O11">
+        <v>0.7022759592109968</v>
+      </c>
+      <c r="P11">
+        <v>0.7022759592109967</v>
+      </c>
+      <c r="Q11">
+        <v>0.2845760343441667</v>
+      </c>
+      <c r="R11">
+        <v>1.707456206065</v>
+      </c>
+      <c r="S11">
+        <v>0.0137433796129053</v>
+      </c>
+      <c r="T11">
+        <v>0.009222413246654616</v>
       </c>
     </row>
   </sheetData>
